--- a/BM3KXR.xlsx
+++ b/BM3KXR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICBC_E-Stamp_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727F31EF-AF96-4ED7-80ED-48326AAE3F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE89129C-0540-43DD-BA68-F67E45B251DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24780" yWindow="4335" windowWidth="21600" windowHeight="10755" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="19" r:id="rId1"/>
@@ -34,21 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Font:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Customer copy only:</t>
   </si>
   <si>
-    <t>Font size:</t>
-  </si>
-  <si>
     <t>Stamp using  the Transaction Timestamp or today's date:</t>
-  </si>
-  <si>
-    <t>Agency name:</t>
   </si>
   <si>
     <t>How to use?</t>
@@ -194,7 +185,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -217,30 +208,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -527,10 +514,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556FC970-1EB5-4487-B0BD-EA9C98D85591}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +529,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -552,11 +539,11 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="9"/>
       <c r="F3" s="9"/>
     </row>
@@ -564,115 +551,90 @@
       <c r="A4" s="3"/>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="str">
+        <f>CONCATENATE("Agency name (character limit: ", LEN(B5), "/17 ):")</f>
+        <v>Agency name (character limit: 0/17 ):</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10"/>
+      <c r="A7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="16" t="str">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="12" t="str">
         <f>HYPERLINK("https://github.com/WebDevBernard/ICBC_E-Stamp_Tool")</f>
         <v>https://github.com/WebDevBernard/ICBC_E-Stamp_Tool</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B16:D18"/>
-    <mergeCell ref="A16:A18"/>
+  <mergeCells count="6">
+    <mergeCell ref="B12:D14"/>
+    <mergeCell ref="A12:A14"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B5:C5"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:C7" xr:uid="{A1C65328-437F-4708-9530-8981183AC5EC}">
       <formula1>"Timestamp, Today"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:C11" xr:uid="{D01DC59F-DEEB-4E70-820E-D4986CAB5F34}">
-      <formula1>"5, 6, 7, 8, 9, 10, 11"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:C9" xr:uid="{B9B50ABE-8F6F-40A5-A837-B55710F7A299}">
-      <formula1>"FiraMono, SpaceMono, NotoSans, Ubuntu, Cascadia"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:C13" xr:uid="{03F6D633-3B3F-42A7-A7D3-8FB2D735D6F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:C9" xr:uid="{03F6D633-3B3F-42A7-A7D3-8FB2D735D6F1}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/BM3KXR.xlsx
+++ b/BM3KXR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICBC_E-Stamp_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE89129C-0540-43DD-BA68-F67E45B251DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E4AA5B-6EFE-40E5-BE50-4D948C02A1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24780" yWindow="4335" windowWidth="21600" windowHeight="10755" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24705" yWindow="3465" windowWidth="21600" windowHeight="10755" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="19" r:id="rId1"/>
@@ -517,7 +517,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BM3KXR.xlsx
+++ b/BM3KXR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICBC_E-Stamp_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E4AA5B-6EFE-40E5-BE50-4D948C02A1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F821EEEA-4BF2-4038-BAE6-D85152C4BF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24705" yWindow="3465" windowWidth="21600" windowHeight="10755" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="19" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Customer copy only:</t>
   </si>
@@ -52,6 +52,45 @@
   </si>
   <si>
     <t>Number of pdfs to scan in Downloads folder:</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>In Microsoft Edge: edge://settings/downloads</t>
+  </si>
+  <si>
+    <t>a) Set downloads to "C:\Users&lt;your_username&gt;\Downloads"</t>
+  </si>
+  <si>
+    <t>b) Toggle off "Ask me what to do with each download"</t>
+  </si>
+  <si>
+    <t>2)</t>
+  </si>
+  <si>
+    <t>You can leave this Excel sheet blank if you don't need any customizations.</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>After processing a Policy Centre transaction, double-click the "icbc_e-stamp_tool.exe - Shortcut"</t>
+  </si>
+  <si>
+    <t>4)</t>
+  </si>
+  <si>
+    <t>This will create a folder on your desktop called "ICBC E-Stamp Copies".</t>
+  </si>
+  <si>
+    <t>5)</t>
+  </si>
+  <si>
+    <t>The "Unsorted E-Stamp Copies" sub-folder allows you to print the stamped agent copy.</t>
+  </si>
+  <si>
+    <t>Broker number:</t>
   </si>
 </sst>
 </file>
@@ -61,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,8 +171,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,8 +202,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -179,13 +235,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -214,6 +288,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,20 +601,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556FC970-1EB5-4487-B0BD-EA9C98D85591}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="6" max="11" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -535,106 +624,195 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30">
       <c r="A5" s="10" t="str">
         <f>CONCATENATE("Agency name (character limit: ", LEN(B5), "/17 ):")</f>
         <v>Agency name (character limit: 0/17 ):</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="45">
+      <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1">
+      <c r="A14" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="12" t="str">
+      <c r="B14" s="19" t="str">
         <f>HYPERLINK("https://github.com/WebDevBernard/ICBC_E-Stamp_Tool")</f>
         <v>https://github.com/WebDevBernard/ICBC_E-Stamp_Tool</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1">
+      <c r="A16" s="22"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B12:D14"/>
-    <mergeCell ref="A12:A14"/>
+  <mergeCells count="7">
+    <mergeCell ref="B14:D16"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:C7" xr:uid="{A1C65328-437F-4708-9530-8981183AC5EC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:C9" xr:uid="{A1C65328-437F-4708-9530-8981183AC5EC}">
       <formula1>"Timestamp, Today"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:C9" xr:uid="{03F6D633-3B3F-42A7-A7D3-8FB2D735D6F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11:C11" xr:uid="{03F6D633-3B3F-42A7-A7D3-8FB2D735D6F1}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/BM3KXR.xlsx
+++ b/BM3KXR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICBC_E-Stamp_Tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonProjects\ICBC_E-Stamp_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F821EEEA-4BF2-4038-BAE6-D85152C4BF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354EC80C-BB50-4497-B757-B3C3807FD86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,7 +604,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/BM3KXR.xlsx
+++ b/BM3KXR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonProjects\ICBC_E-Stamp_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354EC80C-BB50-4497-B757-B3C3807FD86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C582ED5F-3F2A-48E4-9974-F76EA9C5532E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,7 +604,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -623,6 +623,9 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
       <c r="D2" s="4"/>

--- a/BM3KXR.xlsx
+++ b/BM3KXR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonProjects\ICBC_E-Stamp_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C582ED5F-3F2A-48E4-9974-F76EA9C5532E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D708604-C051-440B-B8DD-C88E10CEA2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20595" yWindow="1380" windowWidth="21600" windowHeight="11205" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="19" r:id="rId1"/>
@@ -604,7 +604,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/BM3KXR.xlsx
+++ b/BM3KXR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonProjects\ICBC_E-Stamp_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D708604-C051-440B-B8DD-C88E10CEA2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63464D95-D91A-430F-A4DB-B8AAC9F9B3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20595" yWindow="1380" windowWidth="21600" windowHeight="11205" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="19" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>In Microsoft Edge: edge://settings/downloads</t>
   </si>
   <si>
-    <t>a) Set downloads to "C:\Users&lt;your_username&gt;\Downloads"</t>
-  </si>
-  <si>
     <t>b) Toggle off "Ask me what to do with each download"</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>Broker number:</t>
+  </si>
+  <si>
+    <t>a) Set downloads to "C:\Users\&lt;your_username&gt;\Downloads"</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -658,7 +658,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -732,7 +732,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -742,15 +742,15 @@
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>10</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>11</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -760,18 +760,18 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
         <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>15</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -781,10 +781,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>17</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>

--- a/BM3KXR.xlsx
+++ b/BM3KXR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonProjects\ICBC_E-Stamp_Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63464D95-D91A-430F-A4DB-B8AAC9F9B3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D943118F-F246-48E2-BCFA-DACE8E20CD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24375" yWindow="2955" windowWidth="21600" windowHeight="11205" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="19" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Customer copy only:</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>a) Set downloads to "C:\Users\&lt;your_username&gt;\Downloads"</t>
+  </si>
+  <si>
+    <t>Output directory:</t>
   </si>
 </sst>
 </file>
@@ -259,7 +262,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -301,6 +304,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -601,10 +607,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556FC970-1EB5-4487-B0BD-EA9C98D85591}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -634,8 +640,8 @@
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="9"/>
       <c r="F3" s="9"/>
     </row>
@@ -648,8 +654,8 @@
         <f>CONCATENATE("Agency name (character limit: ", LEN(B5), "/17 ):")</f>
         <v>Agency name (character limit: 0/17 ):</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:7">
@@ -660,8 +666,8 @@
       <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:7">
@@ -671,107 +677,95 @@
       <c r="A9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="10"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1">
-      <c r="A13" s="1" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="19"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1">
-      <c r="A14" s="21" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1">
+      <c r="A16" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="19" t="str">
+      <c r="B16" s="20" t="str">
         <f>HYPERLINK("https://github.com/WebDevBernard/ICBC_E-Stamp_Tool")</f>
         <v>https://github.com/WebDevBernard/ICBC_E-Stamp_Tool</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="20"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1">
+      <c r="A18" s="23"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1">
+      <c r="A19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="B18" s="14" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="B19" s="16" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="16" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -781,37 +775,58 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B25" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="6"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="6"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="8"/>
+      <c r="A28" s="7"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B14:D16"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B16:D18"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:C9" xr:uid="{A1C65328-437F-4708-9530-8981183AC5EC}">
       <formula1>"Timestamp, Today"</formula1>
     </dataValidation>
